--- a/data/trans_dic/P35_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P35_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que bebe alcohol diariamente</t>
+          <t>Población que bebe alcohol diariamente (tasa de respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>14,06%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>13,12%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,86%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>7,31%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,31%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,71%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>3,35%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>11,82%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>11,52%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>10,42%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11,97%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>11,54%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>10,43%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>10,22%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>8,14%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>8,93%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,07; 19,35</t>
+          <t>13,33; 19,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,5; 19,79</t>
+          <t>13,39; 19,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,31; 20,24</t>
+          <t>13,42; 20,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,76; 15,6</t>
+          <t>11,06; 17,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,13; 9,95</t>
+          <t>10,65; 15,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,91</t>
+          <t>11,17; 16,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,68</t>
+          <t>6,37; 10,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 4,59</t>
+          <t>5,77; 9,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,1; 13,65</t>
+          <t>4,02; 7,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,01; 13,49</t>
+          <t>4,81; 9,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,91; 12,36</t>
+          <t>2,34; 4,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,83; 9,64</t>
+          <t>3,3; 5,99</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>10,24; 13,75</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>9,84; 13,18</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>8,94; 12,48</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>8,61; 12,39</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>6,82; 9,6</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>7,68; 10,65</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>1,18%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>13,59%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>12,99%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>12,27%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>13,74%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>12,83%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>11,93%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>11,92%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>8,16%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,99; 29,2</t>
+          <t>19,74; 29,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,76; 26,47</t>
+          <t>19,1; 26,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,76; 25,57</t>
+          <t>17,05; 24,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,48; 19,76</t>
+          <t>16,37; 24,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,77</t>
+          <t>10,23; 19,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,43</t>
+          <t>7,91; 15,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,82</t>
+          <t>2,27; 5,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,31</t>
+          <t>2,13; 5,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,43; 16,51</t>
+          <t>2,06; 4,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,13; 15,06</t>
+          <t>2,38; 5,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,3; 14,52</t>
+          <t>0,35; 3,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,81; 11,0</t>
+          <t>1,25; 6,16</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>11,47; 16,78</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>10,84; 15,22</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>10,12; 13,95</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>9,68; 14,44</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 11,15</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>5,19; 9,5</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>20,23%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,43%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>3,63%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,85%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>15,6%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>9,56%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>14,08%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>15,63%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9,64%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>14,3%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>13,63%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,97; 35,86</t>
+          <t>18,03; 34,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,49; 21,85</t>
+          <t>10,48; 21,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,82; 32,62</t>
+          <t>18,0; 33,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>12,67; 29,81</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>2,58; 10,56</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 7,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,93</t>
+          <t>2,67; 11,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>1,6; 7,36</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 5,96</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 12,42</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>11,64; 22,0</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>6,54; 12,83</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>10,64; 18,46</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>11,52; 20,78</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6,5; 13,2</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>10,49; 18,56</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>9,13; 18,72</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>17,26%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>13,45%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,01%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>2,88%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>12,96%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>11,86%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>11,58%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>4,12%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13,1%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11,82%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>11,47%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>11,3%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>8,15%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>8,55%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,8; 23,11</t>
+          <t>18,03; 23,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,65; 20,93</t>
+          <t>16,57; 20,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,26; 21,75</t>
+          <t>17,11; 21,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,33; 15,61</t>
+          <t>14,77; 19,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 7,34</t>
+          <t>11,48; 15,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 6,59</t>
+          <t>10,98; 15,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,15</t>
+          <t>4,98; 7,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,87</t>
+          <t>4,36; 6,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,52; 14,51</t>
+          <t>3,36; 5,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,68; 13,17</t>
+          <t>4,45; 6,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,44; 13,01</t>
+          <t>1,97; 3,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 9,42</t>
+          <t>3,02; 5,46</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>11,72; 14,8</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>10,65; 13,18</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>10,34; 12,8</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>9,99; 13,0</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>7,06; 9,4</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>7,43; 9,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que bebe alcohol diariamente (tasa de respuesta: 99,85%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>268162</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>267444</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>263907</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>229521</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>30043</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>30693</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>145406</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>133642</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>96421</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>119649</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7964</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10413</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>413569</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>401086</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>360329</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>349170</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>38008</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>41106</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>219876; 322449</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>220615; 320945</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>220046; 329482</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>180548; 286442</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>24389; 35858</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>25164; 37202</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>114907; 185776</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>105492; 169617</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>73116; 127289</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>85914; 162200</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5555; 11120</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7765; 14089</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>353910; 474894</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>341930; 458038</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>308905; 431464</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>294324; 423349</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>31834; 44808</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>35379; 49054</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>329702</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>305975</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>286077</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>277580</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10477</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8131</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>50195</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>45901</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>43360</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>52404</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>379897</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>351876</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>329437</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>329984</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>11253</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>10151</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>271242; 409150</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>261995; 362036</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>235081; 337842</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>225564; 336725</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7392; 14072</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5743; 10936</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>31615; 76094</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>29226; 71945</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>28496; 65867</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>33024; 77087</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>226; 2182</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>834; 4106</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>317313; 464196</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>297319; 417146</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>279512; 385308</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>268013; 399614</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>8043; 15376</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>7229; 13234</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>106633</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>64968</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>107107</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>85518</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>23866</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14628</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11967</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>28226</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>130499</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>79596</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>119073</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>113744</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>76251; 145731</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>44299; 92661</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>76094; 140858</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>53590; 126047</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10992; 45450</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6459; 29662</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4259; 24421</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14059; 51167</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>96144; 173449</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>53667; 108977</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>87361; 154547</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>76171; 156241</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>337.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>362.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>704497</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>638387</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>657090</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>592619</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>40521</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>38824</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>219467</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>194171</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>151749</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>200279</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8740</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>12433</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>923965</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>832558</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>808839</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>792897</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>49260</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>51257</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>621387; 809178</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>570217; 716463</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>588683; 736332</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>507205; 683019</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>34606; 47339</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>32698; 45583</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>179653; 274124</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>156980; 234334</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>121395; 184275</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>159667; 250335</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5977; 11995</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>9117; 16471</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>827041; 1044448</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>749949; 928013</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>729159; 902168</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>701391; 912630</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>42689; 56816</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>44568; 59233</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
